--- a/Systole BP Updated.xlsx
+++ b/Systole BP Updated.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,280 +442,176 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Blood Pressure</t>
+          <t>Systolic BP</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26.06523058</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>125.953125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30.09577265</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>135.921875</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>35.0154733</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>136.265625</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>35.01152913</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>134.03125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>34.99575243</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>125.09375</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39.00839401</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>124.921875</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33.94407362</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>115.984375</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32.96591828</v>
+        <v>25</v>
       </c>
       <c r="B9" t="n">
-        <v>111.859375</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>34.89370955</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>103.953125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39.97077265</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>120.109375</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>41.00455097</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>119.078125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43.03377832</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
-        <v>131.96875</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>45.02477751</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>123.203125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43.00252832</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
-        <v>114.265625</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>40.99211165</v>
+        <v>32</v>
       </c>
       <c r="B16" t="n">
-        <v>112.03125</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40.91889159</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n">
-        <v>107.21875</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>40.00394417</v>
+        <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>102.234375</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>51.0736246</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>139.875</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>50.01375405</v>
+        <v>27</v>
       </c>
       <c r="B20" t="n">
-        <v>126.125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>49.9888754</v>
+        <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>112.03125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56.03317152</v>
+        <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>126.125</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>53.98139159</v>
-      </c>
-      <c r="B23" t="n">
-        <v>137.125</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>58.97764968</v>
-      </c>
-      <c r="B24" t="n">
-        <v>144.171875</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>57.9526699</v>
-      </c>
-      <c r="B25" t="n">
-        <v>150.1875</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>56.01456311</v>
-      </c>
-      <c r="B26" t="n">
-        <v>152.25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>53.05451052</v>
-      </c>
-      <c r="B27" t="n">
-        <v>162.046875</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>59.07392799</v>
-      </c>
-      <c r="B28" t="n">
-        <v>162.046875</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>63.07837783</v>
-      </c>
-      <c r="B29" t="n">
-        <v>157.234375</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>69.02942960999999</v>
-      </c>
-      <c r="B30" t="n">
-        <v>155.171875</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>66.04298138999999</v>
-      </c>
-      <c r="B31" t="n">
-        <v>150.015625</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>65.96430015999999</v>
-      </c>
-      <c r="B32" t="n">
-        <v>142.109375</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>62.97299757</v>
-      </c>
-      <c r="B33" t="n">
-        <v>134.203125</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>71.97158172</v>
-      </c>
-      <c r="B34" t="n">
-        <v>135.234375</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>80.07099515</v>
-      </c>
-      <c r="B35" t="n">
-        <v>140.21875</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Systole BP Updated.xlsx
+++ b/Systole BP Updated.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,26 +488,26 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -515,12 +515,12 @@
         <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" t="n">
         <v>124</v>
@@ -528,89 +528,161 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B14" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>36</v>
+      </c>
+      <c r="B22" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35</v>
+      </c>
+      <c r="B23" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>28</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>23</v>
+      </c>
+      <c r="B30" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n">
         <v>121</v>
       </c>
     </row>
